--- a/Data/Transitions/19251950Translation.xlsx
+++ b/Data/Transitions/19251950Translation.xlsx
@@ -34,7 +34,7 @@
     <t>{4.0: 1.0}</t>
   </si>
   <si>
-    <t>{5.0: 0.9723054057994821}</t>
+    <t>{5.0: 0.9723496875545073}</t>
   </si>
   <si>
     <t>{6.0: 1.0}</t>
@@ -49,16 +49,16 @@
     <t>{9.0: 1.0, 208.0: 0.00029175784099197665}</t>
   </si>
   <si>
-    <t>{10.0: 0.9896835717381881}</t>
-  </si>
-  <si>
-    <t>{11.0: 1.0, 73.0: 0.00042098229282040413}</t>
+    <t>{10.0: 0.9895951735594999}</t>
+  </si>
+  <si>
+    <t>{11.0: 1.0, 73.0: 0.0004209803034445382}</t>
   </si>
   <si>
     <t>{12.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 0.9990105540897097, 178.0: 0.00016215071483358378, 623.0: 0.0007617893503810506, 696.0: 0.002913039036710639, 492.0: 1.823785824440137e-05}</t>
+    <t>{14.0: 0.9990105540897097, 178.0: 0.0001631303974672942, 623.0: 0.0007637695367658331, 696.0: 0.0029920449207345716, 492.0: 1.862468055472948e-05}</t>
   </si>
   <si>
     <t>{15.0: 1.0}</t>
@@ -67,7 +67,7 @@
     <t>{16.0: 1.0}</t>
   </si>
   <si>
-    <t>{17.0: 0.9739444451087542}</t>
+    <t>{17.0: 0.9740081016084345}</t>
   </si>
   <si>
     <t>{18.0: 1.0}</t>
@@ -91,19 +91,19 @@
     <t>{43.0: 1.0}</t>
   </si>
   <si>
-    <t>{44.0: 0.9798798798798799}</t>
+    <t>{44.0: 0.9800980246546859}</t>
   </si>
   <si>
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 1.0, 246.0: 0.022467765092163004, 681.0: 0.00913115225914661, 741.0: 0.006816245384833854, 789.0: 0.0030806647750304013, 90.0: 0.005317945236478841}</t>
+    <t>{46.0: 1.0, 246.0: 0.02244441000314986, 681.0: 0.00913599106149541, 741.0: 0.006816245384833854, 789.0: 0.0030869212022745737, 90.0: 0.005340909090909091}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
   </si>
   <si>
-    <t>{48.0: 1.0, 443.0: 0.03765690376569038}</t>
+    <t>{48.0: 1.0, 443.0: 0.03748355984217448}</t>
   </si>
   <si>
     <t>{49.0: 1.0}</t>
@@ -136,25 +136,25 @@
     <t>{70.0: 1.0}</t>
   </si>
   <si>
-    <t>{71.0: 0.9908461157842652}</t>
+    <t>{71.0: 0.9911641791044776}</t>
   </si>
   <si>
     <t>{72.0: 1.0}</t>
   </si>
   <si>
-    <t>{73.0: 0.8429468776573892, 888.0: 0.006491762867531044}</t>
+    <t>{73.0: 0.8429428942637804, 888.0: 0.0064918045262522235}</t>
   </si>
   <si>
     <t>{74.0: 1.0}</t>
   </si>
   <si>
-    <t>{75.0: 1.0, 917.0: 0.052093120367470505}</t>
+    <t>{75.0: 1.0, 917.0: 0.05246556618652087}</t>
   </si>
   <si>
     <t>{76.0: 1.0}</t>
   </si>
   <si>
-    <t>{77.0: 1.0, 85.0: 0.0009282896263634254}</t>
+    <t>{77.0: 1.0, 85.0: 0.0009250693802035153}</t>
   </si>
   <si>
     <t>{78.0: 1.0}</t>
@@ -163,7 +163,7 @@
     <t>{79.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.7809903028418587, 172.0: 0.0016461579677927844}</t>
+    <t>{81.0: 0.7790212317198133, 172.0: 0.0016363927947164638}</t>
   </si>
   <si>
     <t>{82.0: 1.0}</t>
@@ -175,10 +175,10 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.994052232029912, 178.0: 0.008741636293170308, 492.0: 0.0026447608446060716, 97.0: 1.3291445142580957e-05, 696.0: 3.4539568464333804e-06}</t>
-  </si>
-  <si>
-    <t>{86.0: 0.8967637375132628, 694.0: 0.006483790523690773}</t>
+    <t>{85.0: 0.9940170594048064, 178.0: 0.008787936260567477, 492.0: 0.0026448839746169156, 97.0: 1.3250883392226149e-05, 696.0: 3.3556181386114524e-06}</t>
+  </si>
+  <si>
+    <t>{86.0: 0.8967465145821124, 694.0: 0.006483790523690773}</t>
   </si>
   <si>
     <t>{88.0: 0.9985242575170633, 89.0: 0.2946247464503043}</t>
@@ -187,13 +187,13 @@
     <t>{89.0: 0.7053752535496958, 88.0: 0.0014757424829367274}</t>
   </si>
   <si>
-    <t>{90.0: 0.9946820547635211}</t>
-  </si>
-  <si>
-    <t>{91.0: 0.9615284042749032, 92.0: 0.040265849431765505, 104.0: 1.0, 294.0: 1.0, 566.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.9597341505682345, 91.0: 0.03813849167117715}</t>
+    <t>{90.0: 0.9946590909090909}</t>
+  </si>
+  <si>
+    <t>{91.0: 0.9615324172454731, 92.0: 0.0395714828352435, 104.0: 1.0, 294.0: 1.0, 566.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.9604285171647565, 91.0: 0.038138650843432466}</t>
   </si>
   <si>
     <t>{94.0: 1.0}</t>
@@ -205,10 +205,10 @@
     <t>{96.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9961333977767037}</t>
-  </si>
-  <si>
-    <t>{98.0: 0.44695487535500156}</t>
+    <t>{97.0: 0.9961451975586251}</t>
+  </si>
+  <si>
+    <t>{98.0: 0.4517299630857786}</t>
   </si>
   <si>
     <t>{99.0: 1.0}</t>
@@ -229,13 +229,13 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: -0.013439522150323544, 86.0: -2.979057665950246e-05, 543.0: -1.4407673141658309e-05}</t>
+    <t>{107.0: 1.0, 86.0: 0.0022358026531524816, 543.0: 0.0011260162595893744}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
   </si>
   <si>
-    <t>{109.0: 1.0, 110.0: 0.8367273519846401}</t>
+    <t>{109.0: 1.0, 110.0: 0.8366630142044656}</t>
   </si>
   <si>
     <t>{139.0: 0.6493268053855569}</t>
@@ -247,10 +247,10 @@
     <t>{141.0: 0.9640418752844788}</t>
   </si>
   <si>
-    <t>{142.0: 0.9325995807127883, 44.0: 0.02012012012012012}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9989884514878192}</t>
+    <t>{142.0: 0.9325995807127883, 44.0: 0.019901975345314123}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9989927816014773}</t>
   </si>
   <si>
     <t>{145.0: 0.9987436257482817}</t>
@@ -271,10 +271,10 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9995648863265528, 975.0: 0.0008214690645289342}</t>
-  </si>
-  <si>
-    <t>{185.0: 0.9751506024096386, 700.0: 0.6933559187147691, 173.0: 0.07662878361651851, 404.0: 0.00015302591742855296}</t>
+    <t>{152.0: 0.9995732878173672, 975.0: 0.0008214403552842996}</t>
+  </si>
+  <si>
+    <t>{185.0: 0.9751506024096386, 700.0: 0.6933559187147691, 173.0: 0.07662878361651851, 404.0: 0.0001543025857522946}</t>
   </si>
   <si>
     <t>{163.0: 1.0}</t>
@@ -283,10 +283,10 @@
     <t>{164.0: 1.0}</t>
   </si>
   <si>
-    <t>{165.0: 1.0, 914.0: 0.044090464810719994, 110.0: 0.002611402393722663}</t>
-  </si>
-  <si>
-    <t>{166.0: 1.0, 893.0: 0.002105263157894737}</t>
+    <t>{165.0: 1.0, 914.0: 0.044090464810719994, 110.0: 0.0026124314199263577}</t>
+  </si>
+  <si>
+    <t>{166.0: 1.0, 893.0: 0.002254791431792559}</t>
   </si>
   <si>
     <t>{167.0: 1.0}</t>
@@ -298,16 +298,16 @@
     <t>{170.0: 1.0}</t>
   </si>
   <si>
-    <t>{171.0: 0.7195618837498137}</t>
-  </si>
-  <si>
-    <t>{172.0: 0.9411677681411907, 81.0: 0.003681063393975768}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.9233712163834815, 404.0: 0.001843951069630992, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.9934177215189873, 502.0: 0.0065949395099733615}</t>
+    <t>{171.0: 0.7225911313500082}</t>
+  </si>
+  <si>
+    <t>{172.0: 0.9404908672461181, 81.0: 0.0036717947657656834}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.9233712163834815, 404.0: 0.0018593348291972536, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.9934541792547835, 502.0: 0.006574812569522062}</t>
   </si>
   <si>
     <t>{175.0: 1.0, 399.0: 0.014406358668653751}</t>
@@ -319,34 +319,34 @@
     <t>{177.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 0.9759748680013169, 681.0: 0.005090707812625341}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.4138999238272808, 410.0: 0.014187329728803962, 850.0: 0.0011018966358130604, 277.0: 4.38094565749719e-05}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.5861000761727191, 410.0: 0.020089868482820475, 850.0: 0.001560332981491432, 277.0: 6.203607287057942e-05}</t>
+    <t>{178.0: 0.9759282428739054, 681.0: 0.005090636558964864}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.4137337614901977, 410.0: 0.014060740473467732, 850.0: 0.0011036579166127315, 277.0: 4.408673998884865e-05}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.5862662385098023, 410.0: 0.019924256116666386, 850.0: 0.0015638979353379187, 277.0: 6.247149647233791e-05}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.987915851923326, 277.0: 0.0023339836856795435, 282.0: 0.0027799841143764893}</t>
-  </si>
-  <si>
-    <t>{183.0: 1.0, 182.0: 0.005252914275729661}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.997979117547996, 171.0: 0.0036723380510758886, 593.0: 0.0009507381887469634, 778.0: 0.0005968011458582001}</t>
-  </si>
-  <si>
-    <t>{202.0: 0.2750805601777768, 307.0: 0.9844963966062609}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.8504763219660362}</t>
-  </si>
-  <si>
-    <t>{204.0: 0.9989618864007118, 857.0: 0.0052114880479309945}</t>
+    <t>{182.0: 0.9878613783666107, 277.0: 0.0023355325289895535, 282.0: 0.0028089887640449437}</t>
+  </si>
+  <si>
+    <t>{183.0: 1.0, 182.0: 0.0052764433331860885}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9979626485568761, 171.0: 0.003644673256631927, 593.0: 0.000950454102370883, 778.0: 0.0005811250581125058}</t>
+  </si>
+  <si>
+    <t>{202.0: 0.2751012314568136, 307.0: 0.9844963966062609}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.8511544804837823}</t>
+  </si>
+  <si>
+    <t>{204.0: 0.9989611160581775, 857.0: 0.005209810781766919}</t>
   </si>
   <si>
     <t>{205.0: 1.0}</t>
@@ -355,22 +355,22 @@
     <t>{206.0: 1.0}</t>
   </si>
   <si>
-    <t>{207.0: 0.5561023622047244, 477.0: 0.043134285620362055}</t>
+    <t>{207.0: 0.5561023622047244, 477.0: 0.043143765683135764}</t>
   </si>
   <si>
     <t>{208.0: 0.9887673231218089, 688.0: 0.00763807285546416}</t>
   </si>
   <si>
-    <t>{209.0: 0.9188472487770896}</t>
+    <t>{209.0: 0.9187771232698736}</t>
   </si>
   <si>
     <t>{210.0: 1.0}</t>
   </si>
   <si>
-    <t>{211.0: 0.970627863109674}</t>
-  </si>
-  <si>
-    <t>{212.0: 0.9991899554475496, 681.0: 0.008357040088911935}</t>
+    <t>{211.0: 0.9704727075714479}</t>
+  </si>
+  <si>
+    <t>{212.0: 0.9991932230738201, 681.0: 0.008365967005621318}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -379,13 +379,13 @@
     <t>{214.0: 1.0}</t>
   </si>
   <si>
-    <t>{265.0: 0.2727846961866583}</t>
-  </si>
-  <si>
-    <t>{217.0: 0.9946335737045111}</t>
-  </si>
-  <si>
-    <t>{218.0: 1.0, 409.0: 0.12090597299870061}</t>
+    <t>{265.0: 0.20300968880857473}</t>
+  </si>
+  <si>
+    <t>{217.0: 0.9945955075156223}</t>
+  </si>
+  <si>
+    <t>{218.0: 1.0, 409.0: 0.12102073873692254}</t>
   </si>
   <si>
     <t>{219.0: 1.0}</t>
@@ -394,10 +394,10 @@
     <t>{221.0: 1.0, 999.0: 1.0}</t>
   </si>
   <si>
-    <t>{222.0: 1.0, 490.0: 0.002387696028954705, 503.0: 0.048680958673208055}</t>
-  </si>
-  <si>
-    <t>{223.0: 0.9808052434456929}</t>
+    <t>{222.0: 1.0, 490.0: 0.0023962824030009516, 503.0: 0.048910714816067735}</t>
+  </si>
+  <si>
+    <t>{223.0: 0.9809390980939098}</t>
   </si>
   <si>
     <t>{225.0: 1.0}</t>
@@ -406,10 +406,10 @@
     <t>{226.0: 0.7393333955746428}</t>
   </si>
   <si>
-    <t>{227.0: 0.6609982656151687, 297.0: 4.127455836222553e-05, 686.0: 0.00010807624995586887}</t>
-  </si>
-  <si>
-    <t>{228.0: 1.0, 738.0: 0.003872216844143272}</t>
+    <t>{227.0: 0.6206265284284248, 297.0: 4.15092773234818e-05, 686.0: 0.00010826368595086506}</t>
+  </si>
+  <si>
+    <t>{228.0: 1.0, 738.0: 0.003875968992248062}</t>
   </si>
   <si>
     <t>{229.0: 1.0}</t>
@@ -439,10 +439,13 @@
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.8195167255485202}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.18048327445147982}</t>
+    <t>{240.0: 1.0, 241.0: 0.8103169425483226}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.1896830574516774}</t>
+  </si>
+  <si>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -451,7 +454,7 @@
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.9751240579785078}</t>
+    <t>{246.0: 0.975143601558792}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -460,7 +463,7 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.9057835330760996}</t>
+    <t>{249.0: 0.904978210564596}</t>
   </si>
   <si>
     <t>{250.0: 1.0, 581.0: 0.009343583678296866}</t>
@@ -499,22 +502,22 @@
     <t>{262.0: 0.9778834229020257}</t>
   </si>
   <si>
-    <t>{263.0: 1.0, 595.0: 0.0017152658662092624}</t>
-  </si>
-  <si>
-    <t>{265.0: 0.5219532671708194}</t>
-  </si>
-  <si>
-    <t>{267.0: 0.9917627677100495}</t>
-  </si>
-  <si>
-    <t>{270.0: 1.0, 479.0: 0.02117183653372723, 942.0: 0.00019483285153736716}</t>
+    <t>{263.0: 1.0, 595.0: 0.0017327861377108983}</t>
+  </si>
+  <si>
+    <t>{265.0: 0.5917282745489029}</t>
+  </si>
+  <si>
+    <t>{267.0: 0.9914588315681585}</t>
+  </si>
+  <si>
+    <t>{270.0: 1.0, 479.0: 0.020544672718585764, 942.0: 0.00018927913445146194}</t>
   </si>
   <si>
     <t>{271.0: 1.0}</t>
   </si>
   <si>
-    <t>{272.0: 1.0, 203.0: 0.14952367803396382}</t>
+    <t>{272.0: 1.0, 203.0: 0.1488455195162177}</t>
   </si>
   <si>
     <t>{273.0: 1.0}</t>
@@ -523,13 +526,13 @@
     <t>{274.0: 1.0}</t>
   </si>
   <si>
-    <t>{275.0: 1.0, 921.0: 0.009641342074816815, 686.0: 0.0010047459875561287}</t>
+    <t>{275.0: 1.0, 921.0: 0.009641342074816815, 686.0: 0.0010011859717920977}</t>
   </si>
   <si>
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9217862626854386}</t>
+    <t>{277.0: 0.9215736590859955}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -538,10 +541,10 @@
     <t>{280.0: 1.0}</t>
   </si>
   <si>
-    <t>{281.0: 1.0, 599.0: 0.005053750609359766, 621.0: 0.04563312178906014}</t>
-  </si>
-  <si>
-    <t>{282.0: 0.9972200158856235, 182.0: 0.006831233800944275}</t>
+    <t>{281.0: 1.0, 599.0: 0.005052641409470727, 621.0: 0.04563312178906014}</t>
+  </si>
+  <si>
+    <t>{282.0: 0.9971910112359551, 182.0: 0.006862178300203191}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -553,13 +556,13 @@
     <t>{285.0: 1.0, 311.0: 0.002875413072400326}</t>
   </si>
   <si>
-    <t>{286.0: 1.0, 909.0: 0.05471677235106734}</t>
+    <t>{286.0: 1.0, 909.0: 0.055654435197145524}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
   </si>
   <si>
-    <t>{288.0: 0.9978448275862069}</t>
+    <t>{288.0: 0.9978511952726296}</t>
   </si>
   <si>
     <t>{289.0: 1.0}</t>
@@ -580,10 +583,10 @@
     <t>{295.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9942090158563912, 298.0: 0.12648512248974872}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.8735148775102513, 297.0: 0.004759120184553127}</t>
+    <t>{297.0: 0.9941760838557405, 298.0: 0.12648512248974872}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.8735148775102513, 297.0: 0.004786184211172354}</t>
   </si>
   <si>
     <t>{299.0: 1.0}</t>
@@ -595,13 +598,13 @@
     <t>{301.0: 0.9865262782189703}</t>
   </si>
   <si>
-    <t>{303.0: 1.0, 144.0: 0.00101154851218073}</t>
+    <t>{303.0: 1.0, 144.0: 0.0010072183985227463}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
   </si>
   <si>
-    <t>{305.0: 0.7922672313682628}</t>
+    <t>{305.0: 0.7921536463673023}</t>
   </si>
   <si>
     <t>{306.0: 1.0, 142.0: 0.06740041928721174}</t>
@@ -610,7 +613,7 @@
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 426.0: 0.03955197759887994, 204.0: 0.0010381135992881506, 857.0: 5.4157387671491915e-06}</t>
+    <t>{309.0: 1.0, 426.0: 0.039725786605730354, 204.0: 0.0010388839418224993, 857.0: 5.418017452439226e-06}</t>
   </si>
   <si>
     <t>{310.0: 1.0}</t>
@@ -619,16 +622,16 @@
     <t>{311.0: 0.9971245869275996}</t>
   </si>
   <si>
-    <t>{226.0: 0.2606666044253571, 5.0: 0.01582715129859224, 759.0: 0.003654342218400688}</t>
-  </si>
-  <si>
-    <t>{315.0: 1.0, 217.0: 0.005366426295488848}</t>
+    <t>{226.0: 0.2606666044253571, 5.0: 0.01582787211535657, 759.0: 0.003654342218400688}</t>
+  </si>
+  <si>
+    <t>{315.0: 1.0, 217.0: 0.005404492484377639}</t>
   </si>
   <si>
     <t>{316.0: 1.0}</t>
   </si>
   <si>
-    <t>{317.0: 1.0, 71.0: 0.009153884215734785}</t>
+    <t>{317.0: 1.0, 71.0: 0.008835820895522388}</t>
   </si>
   <si>
     <t>{318.0: 1.0}</t>
@@ -637,10 +640,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{398.0: 1.0, 98.0: 0.5530451246449984}</t>
+    <t>{398.0: 1.0, 98.0: 0.5482700369142214}</t>
   </si>
   <si>
     <t>{399.0: 0.9855936413313463}</t>
@@ -652,16 +652,16 @@
     <t>{401.0: 0.9842657342657343}</t>
   </si>
   <si>
-    <t>{402.0: 0.9983058636451748, 476.0: 0.017708674968506914, 141.0: 0.0015162157654260925}</t>
-  </si>
-  <si>
-    <t>{403.0: 0.8801185344827587}</t>
-  </si>
-  <si>
-    <t>{404.0: 0.6807987541759355, 907.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.3096939584397832}</t>
+    <t>{402.0: 0.9983019057254231, 476.0: 0.017708604760049776, 141.0: 0.0015162157654260925}</t>
+  </si>
+  <si>
+    <t>{403.0: 0.8776632302405498}</t>
+  </si>
+  <si>
+    <t>{404.0: 0.6779529275294144, 907.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.31245635026236357}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -670,13 +670,13 @@
     <t>{407.0: 1.0}</t>
   </si>
   <si>
-    <t>{408.0: 1.0, 403.0: 0.11988146551724138}</t>
-  </si>
-  <si>
-    <t>{409.0: 0.8790940270012993}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.9657228017883756}</t>
+    <t>{408.0: 1.0, 403.0: 0.12233676975945017}</t>
+  </si>
+  <si>
+    <t>{409.0: 0.8789792612630773}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.9660150034098659}</t>
   </si>
   <si>
     <t>{413.0: 1.0}</t>
@@ -685,7 +685,7 @@
     <t>{414.0: 1.0, 759.0: 0.0021496130696474634}</t>
   </si>
   <si>
-    <t>{415.0: 1.0, 277.0: 0.036121526630896655}</t>
+    <t>{415.0: 1.0, 277.0: 0.03614478949162754}</t>
   </si>
   <si>
     <t>{416.0: 1.0}</t>
@@ -694,13 +694,13 @@
     <t>{417.0: 1.0}</t>
   </si>
   <si>
-    <t>{418.0: 0.8796827421550545}</t>
-  </si>
-  <si>
-    <t>{419.0: 1.0, 17.0: 0.01098901098901099}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.864197190205337, 212.0: 0.0008088029145710924, 681.0: 5.191844963546117e-06}</t>
+    <t>{418.0: 0.879367457019463}</t>
+  </si>
+  <si>
+    <t>{419.0: 1.0, 17.0: 0.010924369747899159}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.8627846712373488, 212.0: 0.0008055402969245773, 681.0: 5.178103472838508e-06}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
@@ -709,13 +709,13 @@
     <t>{423.0: 1.0}</t>
   </si>
   <si>
-    <t>{424.0: 1.0, 585.0: 0.012401653553807174}</t>
+    <t>{424.0: 1.0, 585.0: 0.012528627239660514}</t>
   </si>
   <si>
     <t>{425.0: 1.0}</t>
   </si>
   <si>
-    <t>{426.0: 0.96044802240112}</t>
+    <t>{426.0: 0.9602742133942697}</t>
   </si>
   <si>
     <t>{428.0: 0.995369543941235}</t>
@@ -724,10 +724,10 @@
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.29759273185332574, 783.0: 0.0003181673560292714}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.7024072681466742}</t>
+    <t>{431.0: 0.2217269368149083, 783.0: 0.0003204101249599487}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.7782730631850917}</t>
   </si>
   <si>
     <t>{432.0: 0.9940968122786304}</t>
@@ -760,7 +760,7 @@
     <t>{442.0: 0.9978991596638656}</t>
   </si>
   <si>
-    <t>{443.0: 0.9623430962343096}</t>
+    <t>{443.0: 0.9625164401578256}</t>
   </si>
   <si>
     <t>{475.0: 0.9825250343608875}</t>
@@ -769,13 +769,13 @@
     <t>{476.0: 0.982261273209549}</t>
   </si>
   <si>
-    <t>{477.0: 0.08288882327934162}</t>
+    <t>{477.0: 0.0828872914271976}</t>
   </si>
   <si>
     <t>{478.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728, 942.0: 0.009007621136192695}</t>
+    <t>{479.0: 0.9794553272814143, 942.0: 0.009023772688965046}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -799,16 +799,16 @@
     <t>{487.0: 1.0}</t>
   </si>
   <si>
-    <t>{489.0: 0.9861400416599904, 935.0: 0.005134841466606503}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9503030195239726, 503.0: 0.007690879292109704}</t>
+    <t>{489.0: 0.9861400416599904, 935.0: 0.005083835245575205}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9501259727898774, 503.0: 0.007727197983891121}</t>
   </si>
   <si>
     <t>{491.0: 1.0, 492.0: 0.22436055090998525}</t>
   </si>
   <si>
-    <t>{492.0: 0.7660189137195403, 97.0: 0.003849685838569357, 696.0: 0.0010003915011578862, 85.0: 0.0014232697124584544, 178.0: 0.015121184392414243}</t>
+    <t>{492.0: 0.7660545766481357, 97.0: 0.003837937680693864, 696.0: 0.0009719090354196443, 85.0: 0.0014232193527988638, 178.0: 0.015120528899491788}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -826,19 +826,19 @@
     <t>{498.0: 1.0}</t>
   </si>
   <si>
-    <t>{499.0: 0.9598576230966976}</t>
-  </si>
-  <si>
-    <t>{500.0: 0.9171511627906976}</t>
+    <t>{499.0: 0.9608410493827161}</t>
+  </si>
+  <si>
+    <t>{500.0: 0.9184549356223176}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{502.0: 0.9933613631334366, 534.0: 0.0004564646810453041, 695.0: 0.0018017591979570605, 857.0: 5.903870010747374e-05}</t>
-  </si>
-  <si>
-    <t>{503.0: 0.9436281620346821}</t>
+    <t>{502.0: 0.9933818663136995, 534.0: 0.0004564646810453041, 695.0: 0.0018018564173032106, 857.0: 5.9079429396195726e-05}</t>
+  </si>
+  <si>
+    <t>{503.0: 0.9433620872000411}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -850,7 +850,7 @@
     <t>{506.0: 1.0}</t>
   </si>
   <si>
-    <t>{507.0: 0.7987576959287707}</t>
+    <t>{507.0: 0.7976368788574122}</t>
   </si>
   <si>
     <t>{529.0: 1.0}</t>
@@ -868,13 +868,13 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.9995435353189547, 402.0: 0.0006615052106698433, 476.0: 1.1734260202532035e-05, 141.0: 1.0046867056022953e-06}</t>
+    <t>{534.0: 0.9995435353189547, 402.0: 0.0006615025880422153, 476.0: 1.1734213680457066e-05, 141.0: 1.0046867056022953e-06}</t>
   </si>
   <si>
     <t>{535.0: 1.0}</t>
   </si>
   <si>
-    <t>{536.0: 0.5244740231859167}</t>
+    <t>{536.0: 0.5216757544674189}</t>
   </si>
   <si>
     <t>{537.0: 1.0}</t>
@@ -892,7 +892,7 @@
     <t>{542.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: 0.980110380594447}</t>
+    <t>{543.0: 0.9800564019401017}</t>
   </si>
   <si>
     <t>{544.0: 1.0}</t>
@@ -910,7 +910,7 @@
     <t>{561.0: 0.9775441949354993, 979.0: 0.001452643811737362}</t>
   </si>
   <si>
-    <t>{562.0: 1.0, 211.0: 0.029372136890326056}</t>
+    <t>{562.0: 1.0, 211.0: 0.02952729242855208}</t>
   </si>
   <si>
     <t>{563.0: 0.9855681658960348}</t>
@@ -943,7 +943,7 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.7049758840017422, 752.0: 0.04612635356536104}</t>
+    <t>{580.0: 0.7042020731162082, 752.0: 0.046284020554380495}</t>
   </si>
   <si>
     <t>{581.0: 0.9906564163217031}</t>
@@ -958,7 +958,7 @@
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 0.9875983464461928}</t>
+    <t>{585.0: 0.9874713727603395}</t>
   </si>
   <si>
     <t>{586.0: 1.0}</t>
@@ -967,7 +967,7 @@
     <t>{587.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.21493016932394018, 172.0: 0.05718523401450231, 507.0: 0.20124230407122928}</t>
+    <t>{81.0: 0.21691405762754148, 172.0: 0.057871914609739825, 507.0: 0.2023631211425878}</t>
   </si>
   <si>
     <t>{589.0: 1.0}</t>
@@ -979,22 +979,22 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.9967745561456847, 686.0: 0.0085386092587736, 171.0: 0.00415931724710875}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9982847341337907, 402.0: 0.0010326311441553077, 476.0: 1.8317561741481748e-05}</t>
+    <t>{593.0: 0.9967788758222881, 686.0: 0.008452917354565652, 171.0: 0.004176827348843978}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9982672138622891, 402.0: 0.001036591686534674, 476.0: 1.8387816720691333e-05}</t>
   </si>
   <si>
     <t>{596.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.9973904244554508}</t>
-  </si>
-  <si>
-    <t>{598.0: 1.0, 599.0: 0.017882490564377636}</t>
-  </si>
-  <si>
-    <t>{599.0: 0.9770637588262626}</t>
+    <t>{597.0: 0.9973572083490643}</t>
+  </si>
+  <si>
+    <t>{598.0: 1.0, 599.0: 0.018098046241080627}</t>
+  </si>
+  <si>
+    <t>{599.0: 0.9768493123494487}</t>
   </si>
   <si>
     <t>{600.0: 1.0}</t>
@@ -1009,13 +1009,13 @@
     <t>{603.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.0011317469689680157}</t>
+    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.0011333229466893692}</t>
   </si>
   <si>
     <t>{605.0: 1.0, 475.0: 0.017474965639112508}</t>
   </si>
   <si>
-    <t>{606.0: 0.9985494106980961}</t>
+    <t>{606.0: 0.9985660512636674}</t>
   </si>
   <si>
     <t>{607.0: 1.0}</t>
@@ -1033,16 +1033,16 @@
     <t>{611.0: 1.0}</t>
   </si>
   <si>
-    <t>{612.0: 1.0, 613.0: 0.014371407148212946}</t>
-  </si>
-  <si>
-    <t>{613.0: 0.985628592851787}</t>
-  </si>
-  <si>
-    <t>{305.0: 0.20773276863173715, 615.0: 0.006883365200764819, 698.0: 0.0026191723415400735, 832.0: 0.1194793119479312}</t>
-  </si>
-  <si>
-    <t>{615.0: 0.9804817960786402}</t>
+    <t>{612.0: 1.0, 613.0: 0.013974117504101099}</t>
+  </si>
+  <si>
+    <t>{613.0: 0.986025882495899}</t>
+  </si>
+  <si>
+    <t>{305.0: 0.20784635363269768, 615.0: 0.006551410373066424, 698.0: 0.0026393929396238865, 832.0: 0.12134088762983947}</t>
+  </si>
+  <si>
+    <t>{615.0: 0.9809807917578434}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1051,10 +1051,10 @@
     <t>{617.0: 1.0}</t>
   </si>
   <si>
-    <t>{618.0: 1.0, 246.0: 0.0009234948281437206, 789.0: 0.004038844209271378}</t>
-  </si>
-  <si>
-    <t>{619.0: 1.0, 887.0: 0.010772210118615348, 861.0: 0.015839714675338297, 253.0: 2.6052162294964303e-05}</t>
+    <t>{618.0: 1.0, 246.0: 0.0009289641903231521, 789.0: 0.004038497551265335}</t>
+  </si>
+  <si>
+    <t>{619.0: 1.0, 887.0: 0.010616724323034713, 861.0: 0.015856347789562113, 253.0: 2.607951939072716e-05}</t>
   </si>
   <si>
     <t>{620.0: 1.0}</t>
@@ -1066,7 +1066,7 @@
     <t>{622.0: 1.0}</t>
   </si>
   <si>
-    <t>{623.0: 0.9992374561537288}</t>
+    <t>{623.0: 0.9992354740061162}</t>
   </si>
   <si>
     <t>{624.0: 1.0}</t>
@@ -1081,7 +1081,7 @@
     <t>{627.0: 1.0}</t>
   </si>
   <si>
-    <t>{629.0: 1.0, 209.0: 0.048963766190058954, 788.0: 0.513246688327918}</t>
+    <t>{629.0: 1.0, 209.0: 0.04903634832856514, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{630.0: 1.0}</t>
@@ -1102,7 +1102,7 @@
     <t>{636.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.001177581845678005}</t>
+    <t>{702.0: 0.001070622812488529}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
@@ -1114,13 +1114,13 @@
     <t>{680.0: 0.9940650146591502}</t>
   </si>
   <si>
-    <t>{681.0: 0.9774159000240654}</t>
+    <t>{681.0: 0.9774022193212538}</t>
   </si>
   <si>
     <t>{682.0: 1.0}</t>
   </si>
   <si>
-    <t>{683.0: 1.0, 698.0: 0.0021036568325302507}</t>
+    <t>{683.0: 1.0, 698.0: 0.002118993978632306}</t>
   </si>
   <si>
     <t>{684.0: 1.0}</t>
@@ -1129,10 +1129,10 @@
     <t>{685.0: 1.0}</t>
   </si>
   <si>
-    <t>{686.0: 0.8598968393189069}</t>
-  </si>
-  <si>
-    <t>{687.0: 1.0, 174.0: 0.006582278481012658, 502.0: 4.369735659003756e-05}</t>
+    <t>{686.0: 0.8604486907130277}</t>
+  </si>
+  <si>
+    <t>{687.0: 1.0, 174.0: 0.006545820745216516, 502.0: 4.332111677840183e-05}</t>
   </si>
   <si>
     <t>{688.0: 0.9923619271445359, 208.0: 0.010940919037199124}</t>
@@ -1144,25 +1144,25 @@
     <t>{691.0: 1.0}</t>
   </si>
   <si>
-    <t>{692.0: 1.0, 110.0: 0.027943409349163437}</t>
+    <t>{692.0: 1.0, 110.0: 0.02795442048268693}</t>
   </si>
   <si>
     <t>{693.0: 1.0}</t>
   </si>
   <si>
-    <t>{694.0: 0.9935162094763093, 86.0: 0.10101962291233192}</t>
-  </si>
-  <si>
-    <t>{695.0: 0.9801570036886409, 857.0: 0.032117052858465715}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.996083115505285, 492.0: 0.006957536667623922, 14.0: 0.0009894459102902375, 178.0: 1.605982649391718e-07, 623.0: 7.544958901099875e-07, 97.0: 3.624939584340261e-06}</t>
+    <t>{694.0: 0.9935162094763093, 86.0: 0.10101768276473509}</t>
+  </si>
+  <si>
+    <t>{695.0: 0.9802098910129465, 857.0: 0.03213920959153047}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9960326904257072, 492.0: 0.006921363786707522, 14.0: 0.0009894459102902375, 178.0: 1.6156856797685133e-07, 623.0: 7.564571179588972e-07, 97.0: 3.6138772887889494e-06}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.9952771708259297}</t>
+    <t>{698.0: 0.9952416130817437}</t>
   </si>
   <si>
     <t>{700.0: 0.305808730390477}</t>
@@ -1171,7 +1171,7 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.8094192929256746}</t>
+    <t>{702.0: 0.8093908462413278}</t>
   </si>
   <si>
     <t>{704.0: 1.0}</t>
@@ -1180,10 +1180,10 @@
     <t>{705.0: 1.0}</t>
   </si>
   <si>
-    <t>{707.0: 0.9947004269100544}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.24651638430607126}</t>
+    <t>{707.0: 0.9945071711931645}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.24737822594408024}</t>
   </si>
   <si>
     <t>{729.0: 1.0}</t>
@@ -1195,7 +1195,7 @@
     <t>{732.0: 1.0}</t>
   </si>
   <si>
-    <t>{734.0: 1.0, 73.0: 0.15663214004979042, 888.0: 0.6845827597220233}</t>
+    <t>{734.0: 1.0, 73.0: 0.156636125432775, 888.0: 0.6845807356371736}</t>
   </si>
   <si>
     <t>{735.0: 1.0}</t>
@@ -1204,16 +1204,16 @@
     <t>{736.0: 1.0}</t>
   </si>
   <si>
-    <t>{737.0: 1.0, 223.0: 0.019194756554307114, 428.0: 0.0037142610348103997}</t>
-  </si>
-  <si>
-    <t>{738.0: 0.9961277831558567}</t>
+    <t>{737.0: 1.0, 223.0: 0.01906090190609019, 428.0: 0.0037142610348103997}</t>
+  </si>
+  <si>
+    <t>{738.0: 0.9961240310077519}</t>
   </si>
   <si>
     <t>{739.0: 1.0}</t>
   </si>
   <si>
-    <t>{740.0: 1.0, 789.0: 0.16721402580269057, 246.0: 0.00025003983200685086}</t>
+    <t>{740.0: 1.0, 789.0: 0.16719979757893755, 246.0: 0.00024974086224936775}</t>
   </si>
   <si>
     <t>{741.0: 0.9931837546151662}</t>
@@ -1240,7 +1240,7 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.953873646434639, 580.0: 0.048507731692186445}</t>
+    <t>{752.0: 0.9537159794456196, 580.0: 0.04841970093971142}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1261,10 +1261,10 @@
     <t>{759.0: 0.9941960447119519}</t>
   </si>
   <si>
-    <t>{760.0: 1.0, 761.0: 0.056717805671780565}</t>
-  </si>
-  <si>
-    <t>{761.0: 0.9432821943282195}</t>
+    <t>{760.0: 1.0, 761.0: 0.05663223859811999}</t>
+  </si>
+  <si>
+    <t>{761.0: 0.9433677614018801}</t>
   </si>
   <si>
     <t>{762.0: 0.9936716013108826, 141.0: 0.03444090426338947}</t>
@@ -1282,7 +1282,7 @@
     <t>{769.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 1.0, 992.0: 0.004195915018970644}</t>
+    <t>{770.0: 1.0, 992.0: 0.004189527220903865}</t>
   </si>
   <si>
     <t>{771.0: 1.0}</t>
@@ -1291,7 +1291,7 @@
     <t>{772.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.34200974234125203}</t>
+    <t>{992.0: 0.3420146417863564}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1303,16 +1303,16 @@
     <t>{777.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9994031988541417, 171.0: 0.01830002189473766, 184.0: 0.0020208824520040417, 593.0: 0.00123755688186106, 420.0: 0.0013266766813100044, 212.0: 1.2416378792924353e-06, 681.0: 7.970287018032109e-09}</t>
+    <t>{778.0: 0.9994188749418875, 171.0: 0.018088971578194488, 184.0: 0.0020373514431239388, 593.0: 0.001237224002436105, 420.0: 0.0013245082456821442, 212.0: 1.2366292553340148e-06, 681.0: 7.949191699168725e-09}</t>
   </si>
   <si>
     <t>{779.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 1.0, 81.0: 0.0003984644402254381, 172.0: 8.39876514179992e-07}</t>
-  </si>
-  <si>
-    <t>{783.0: 0.9996818326439707}</t>
+    <t>{781.0: 1.0, 81.0: 0.0003929158868795293, 172.0: 8.253494257144237e-07}</t>
+  </si>
+  <si>
+    <t>{783.0: 0.99967958987504}</t>
   </si>
   <si>
     <t>{784.0: 1.0}</t>
@@ -1324,34 +1324,34 @@
     <t>{786.0: 1.0}</t>
   </si>
   <si>
-    <t>{787.0: 1.0, 500.0: 0.08284883720930232}</t>
-  </si>
-  <si>
-    <t>{788.0: -0.04165571887483691}</t>
-  </si>
-  <si>
-    <t>{789.0: 0.8256664652130076, 246.0: 0.0012346422691787672}</t>
+    <t>{787.0: 1.0, 500.0: 0.0815450643776824}</t>
+  </si>
+  <si>
+    <t>{788.0: -0.03638598371247355}</t>
+  </si>
+  <si>
+    <t>{789.0: 0.8256747836675226, 246.0: 0.0012332833854857683}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
   </si>
   <si>
-    <t>{832.0: 0.8805206880520688}</t>
-  </si>
-  <si>
-    <t>{833.0: 1.0, 17.0: 0.015066543902234872, 918.0: 0.0009159606136936112}</t>
+    <t>{832.0: 0.8786591123701605}</t>
+  </si>
+  <si>
+    <t>{833.0: 1.0, 17.0: 0.01506752864366639, 918.0: 0.0009159606136936112}</t>
   </si>
   <si>
     <t>{834.0: 1.0}</t>
   </si>
   <si>
-    <t>{835.0: 0.9951693718708581, 836.0: 0.01623484783609078}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9837651521639091, 835.0: 0.0048306281291418725}</t>
-  </si>
-  <si>
-    <t>{837.0: 1.0, 536.0: 0.4755259768140833, 486.0: 1.0, 980.0: 0.30157180612251394}</t>
+    <t>{835.0: 0.9949819321325729, 836.0: 0.015424630556912554}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9845753694430874, 835.0: 0.005018067867427023}</t>
+  </si>
+  <si>
+    <t>{837.0: 1.0, 536.0: 0.4783242455325811, 486.0: 1.0, 980.0: 0.30157180612251394}</t>
   </si>
   <si>
     <t>{838.0: 1.0}</t>
@@ -1369,7 +1369,7 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 0.33900173438483133, 686.0: 0.02724422134304194}</t>
+    <t>{227.0: 0.37937347157157514, 686.0: 0.027147119252179414}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1381,25 +1381,25 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 0.9599733155436958, 707.0: 0.005087448750121161, 634.0: 0.7718719148830033}</t>
+    <t>{848.0: 0.9599733155436958, 707.0: 0.005272969081411817, 634.0: 0.7775819960961876}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 0.9973377703826956, 277.0: 0.03965238146853967}</t>
+    <t>{850.0: 0.9973324441480493, 277.0: 0.039839460656926125}</t>
   </si>
   <si>
     <t>{851.0: 1.0}</t>
   </si>
   <si>
-    <t>{852.0: 0.9974811083123426, 922.0: 0.0020619473322330295}</t>
-  </si>
-  <si>
-    <t>{853.0: 1.0, 91.0: 0.00033310405391959646, 202.0: 0.7249194398222232, 680.0: 0.00593498534084983, 477.0: 0.8739768911002963, 307.0: 0.015503603393739076, 207.0: 0.4438976377952756}</t>
-  </si>
-  <si>
-    <t>{854.0: 1.0, 976.0: 0.0017019959771004177}</t>
+    <t>{852.0: 0.9974811083123426, 922.0: 0.0021321840961913714}</t>
+  </si>
+  <si>
+    <t>{853.0: 1.0, 91.0: 0.00032893191109440345, 202.0: 0.7248987685431864, 680.0: 0.00593498534084983, 477.0: 0.8739689428896666, 307.0: 0.015503603393739076, 207.0: 0.4438976377952756}</t>
+  </si>
+  <si>
+    <t>{854.0: 1.0, 976.0: 0.0015838732901367891}</t>
   </si>
   <si>
     <t>{855.0: 1.0}</t>
@@ -1408,7 +1408,7 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 0.9626070046547287, 695.0: 0.01804123711340206}</t>
+    <t>{857.0: 0.9625864821798541, 695.0: 0.017988252569750368}</t>
   </si>
   <si>
     <t>{858.0: 1.0, 543.0: 0.018817581800308944}</t>
@@ -1420,13 +1420,13 @@
     <t>{860.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.9841602853246617, 253.0: 0.0016186846798102988, 490.0: 0.04730928444707274}</t>
-  </si>
-  <si>
-    <t>{863.0: 1.0, 10.0: 0.010316428261811877}</t>
-  </si>
-  <si>
-    <t>{3.0: 0.7013754525363534}</t>
+    <t>{861.0: 0.9841436522104379, 253.0: 0.0016186573227145358, 490.0: 0.04747774480712166}</t>
+  </si>
+  <si>
+    <t>{863.0: 1.0, 10.0: 0.010404826440500132}</t>
+  </si>
+  <si>
+    <t>{3.0: 0.6949628567939019}</t>
   </si>
   <si>
     <t>{885.0: 1.0}</t>
@@ -1435,10 +1435,10 @@
     <t>{886.0: 0.4020987553892459}</t>
   </si>
   <si>
-    <t>{887.0: 0.9892277898813846, 267.0: 0.008237232289950576}</t>
-  </si>
-  <si>
-    <t>{888.0: 0.30892547741044557}</t>
+    <t>{887.0: 0.9893832756769653, 267.0: 0.008541168431841476}</t>
+  </si>
+  <si>
+    <t>{888.0: 0.30892745983657405}</t>
   </si>
   <si>
     <t>{889.0: 1.0}</t>
@@ -1453,28 +1453,28 @@
     <t>{892.0: 1.0}</t>
   </si>
   <si>
-    <t>{893.0: 0.9978947368421053}</t>
+    <t>{893.0: 0.9977452085682075}</t>
   </si>
   <si>
     <t>{894.0: 1.0}</t>
   </si>
   <si>
-    <t>{895.0: 0.9977052524222335, 209.0: 0.0017243782148631708}</t>
-  </si>
-  <si>
-    <t>{896.0: 1.0, 209.0: 0.030464606817988293, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
-  </si>
-  <si>
-    <t>{905.0: 1.0, 499.0: 0.04014237690330235}</t>
+    <t>{895.0: 0.9977052524222335, 209.0: 0.0017242466120346155}</t>
+  </si>
+  <si>
+    <t>{896.0: 1.0, 209.0: 0.03046228178952672, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
+  </si>
+  <si>
+    <t>{905.0: 1.0, 499.0: 0.03915895061728395}</t>
   </si>
   <si>
     <t>{906.0: 1.0}</t>
   </si>
   <si>
-    <t>{788.0: 0.5284090305469189}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.9452832276489327}</t>
+    <t>{788.0: 0.5258825654402548}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.9443455648028545}</t>
   </si>
   <si>
     <t>{911.0: 1.0}</t>
@@ -1483,31 +1483,31 @@
     <t>{913.0: 1.0}</t>
   </si>
   <si>
-    <t>{914.0: 0.95590953518928, 110.0: 0.13225596173777687}</t>
-  </si>
-  <si>
-    <t>{915.0: 1.0, 171.0: 0.25325887987017, 420.0: 0.13447613311335305}</t>
+    <t>{914.0: 0.95590953518928, 110.0: 0.13230807735601716}</t>
+  </si>
+  <si>
+    <t>{915.0: 1.0, 171.0: 0.2504542281463881, 420.0: 0.135890820516969}</t>
   </si>
   <si>
     <t>{916.0: 1.0}</t>
   </si>
   <si>
-    <t>{917.0: 0.9479068796325295}</t>
+    <t>{917.0: 0.9475344338134791}</t>
   </si>
   <si>
     <t>{918.0: 0.9990840393863064}</t>
   </si>
   <si>
-    <t>{919.0: 1.0, 297.0: 0.0009905894006934125}</t>
+    <t>{919.0: 1.0, 297.0: 0.0009962226557635632}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
   </si>
   <si>
-    <t>{921.0: 0.9903586579251832, 686.0: 0.10320750784176552}</t>
-  </si>
-  <si>
-    <t>{922.0: 0.9306830001112347}</t>
+    <t>{921.0: 0.9903586579251832, 686.0: 0.10284182302248428}</t>
+  </si>
+  <si>
+    <t>{922.0: 0.9318384535536638}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1525,7 +1525,7 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.2986245474636466, 418.0: 0.12031725784494546, 922.0: 0.06612330558756407}</t>
+    <t>{3.0: 0.3050371432060981, 418.0: 0.12063254298053716, 922.0: 0.06489603940345559}</t>
   </si>
   <si>
     <t>{931.0: 0.9138912855910267}</t>
@@ -1534,19 +1534,19 @@
     <t>{932.0: 1.0}</t>
   </si>
   <si>
-    <t>{933.0: 1.0, 702.0: 0.0035650623885918, 249.0: 0.09421646692390045}</t>
-  </si>
-  <si>
-    <t>{934.0: 1.0, 5.0: 0.01186744290192566}</t>
-  </si>
-  <si>
-    <t>{935.0: 0.9947929895859792}</t>
+    <t>{933.0: 1.0, 702.0: 0.0035676061362825543, 249.0: 0.09502178943540394}</t>
+  </si>
+  <si>
+    <t>{934.0: 1.0, 5.0: 0.01182244033013607}</t>
+  </si>
+  <si>
+    <t>{935.0: 0.9948447126870363}</t>
   </si>
   <si>
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 171.0: 0.001047559187094071, 593.0: 0.0010371487837073355, 85.0: 0.0035962086312661835}</t>
+    <t>{937.0: 1.0, 171.0: 0.0010441683199331733, 593.0: 0.001033446072904923, 85.0: 0.003634651862191165}</t>
   </si>
   <si>
     <t>{940.0: 1.0, 785.0: 0.004104903078677309}</t>
@@ -1555,19 +1555,19 @@
     <t>{941.0: 1.0}</t>
   </si>
   <si>
-    <t>{942.0: 0.99079754601227}</t>
-  </si>
-  <si>
-    <t>{943.0: 1.0, 634.0: 0.22518552118489313, 848.0: 0.0400266844563042, 707.0: 0.00021212433982437085}</t>
+    <t>{942.0: 0.9907869481765835}</t>
+  </si>
+  <si>
+    <t>{943.0: 1.0, 634.0: 0.2195646220947482, 848.0: 0.0400266844563042, 707.0: 0.00021985972542370327}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 1.0, 975.0: 0.00212017325621649, 152.0: 0.0004351136734471881}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.3506731946144431, 615.0: 0.012634838720595046}</t>
+    <t>{971.0: 1.0, 975.0: 0.0021634278806931177, 152.0: 0.0004267121826328142}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.3506731946144431, 615.0: 0.01246779786909029}</t>
   </si>
   <si>
     <t>{973.0: 1.0}</t>
@@ -1576,16 +1576,16 @@
     <t>{974.0: 1.0}</t>
   </si>
   <si>
-    <t>{975.0: 0.9970583576792547}</t>
-  </si>
-  <si>
-    <t>{976.0: 0.9982980040228996}</t>
+    <t>{975.0: 0.9970151317640227}</t>
+  </si>
+  <si>
+    <t>{976.0: 0.9984161267098632}</t>
   </si>
   <si>
     <t>{977.0: 1.0}</t>
   </si>
   <si>
-    <t>{978.0: 1.0, 489.0: 0.013859958340009615, 935.0: 7.21689474143249e-05}</t>
+    <t>{978.0: 1.0, 489.0: 0.013859958340009615, 935.0: 7.145206738845646e-05}</t>
   </si>
   <si>
     <t>{979.0: 0.9985473561882626, 561.0: 0.022455805064500716}</t>
@@ -1603,7 +1603,7 @@
     <t>{990.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.6493705425955395}</t>
+    <t>{992.0: 0.6493798451238946}</t>
   </si>
   <si>
     <t>{5.0: 1.0}</t>
@@ -1618,7 +1618,7 @@
     <t>{11.0: 0.9970355731225297, 73.0: 0.0029644268774703555}</t>
   </si>
   <si>
-    <t>{14.0: 0.9919250645994832, 178.0: 0.0006459948320413437, 623.0: 0.0016149870801033589, 696.0: 0.0057214311615196856, 492.0: 9.25223268524091e-05}</t>
+    <t>{14.0: 0.9919302775984508, 178.0: 0.0006455777921239509, 623.0: 0.0016139444803098773, 696.0: 0.0057179007368205565, 492.0: 9.229939229500005e-05}</t>
   </si>
   <si>
     <t>{17.0: 1.0}</t>
@@ -1630,7 +1630,7 @@
     <t>{44.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.8874999100147238, 246.0: 0.05540106084272951, 681.0: 0.024202783198348638, 741.0: 0.0072995194792163706, 789.0: 0.011557572508759254, 90.0: 0.014039153956222641}</t>
+    <t>{46.0: 0.8874999100147237, 246.0: 0.05540106084272951, 681.0: 0.024202783198348638, 741.0: 0.0072995194792163706, 789.0: 0.011557572508759254, 90.0: 0.014039153956222634}</t>
   </si>
   <si>
     <t>{48.0: 0.9182990922121357, 443.0: 0.0817009077878643}</t>
@@ -1642,16 +1642,16 @@
     <t>{73.0: 0.99141689373297, 888.0: 0.008583106267029973}</t>
   </si>
   <si>
-    <t>{75.0: 0.8852873563218391, 917.0: 0.11471264367816089}</t>
-  </si>
-  <si>
-    <t>{77.0: 0.9994776704100288, 85.0: 0.0005223295899712719}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.9985382678699433, 172.0: 0.0014617321300571375}</t>
-  </si>
-  <si>
-    <t>{85.0: 0.9672733850680976, 178.0: 0.023807093342605865, 492.0: 0.008896842056550164, 97.0: 1.8201557532787838e-05, 696.0: 4.477975213620284e-06}</t>
+    <t>{75.0: 0.8878903617164684, 917.0: 0.11210963828353183}</t>
+  </si>
+  <si>
+    <t>{77.0: 0.9994692848613506, 85.0: 0.0005307151386493299}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.9985370734491796, 172.0: 0.0014629265508203813}</t>
+  </si>
+  <si>
+    <t>{85.0: 0.9672733850680976, 178.0: 0.023807093342605865, 492.0: 0.008896841928733116, 97.0: 1.8201557532787838e-05, 696.0: 4.478103030671848e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.9886446353180958, 694.0: 0.011355364681904206}</t>
@@ -1666,10 +1666,10 @@
     <t>{90.0: 1.0}</t>
   </si>
   <si>
-    <t>{91.0: 0.9628148011524467, 92.0: 0.004566266646967782, 104.0: 0.02105173164039654, 294.0: 0.0036045937888712597, 566.0: 0.00796260677131807}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.6191995704593853, 91.0: 0.38080042954061477}</t>
+    <t>{91.0: 0.9628148011524468, 92.0: 0.004334749724608858, 104.0: 0.021283248562755454, 294.0: 0.0036045937888712597, 566.0: 0.00796260677131807}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.6191995704593853, 91.0: 0.38080042954061494}</t>
   </si>
   <si>
     <t>{97.0: 1.0}</t>
@@ -1678,10 +1678,10 @@
     <t>{98.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 0.9974495015699064, 86.0: 0.001732084107843088, 543.0: 0.0008184143222506396}</t>
-  </si>
-  <si>
-    <t>{109.0: 0.7783443228422289, 110.0: 0.22165567715777135}</t>
+    <t>{107.0: 0.9974548159024924, 86.0: 0.0017320933362511442, 543.0: 0.0008130907612562256}</t>
+  </si>
+  <si>
+    <t>{109.0: 0.7783443228422288, 110.0: 0.22165567715777135}</t>
   </si>
   <si>
     <t>{139.0: 1.0}</t>
@@ -1693,7 +1693,7 @@
     <t>{141.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 0.9847917376007264, 44.0: 0.015208262399273637}</t>
+    <t>{142.0: 0.9847119224187109, 44.0: 0.01528807758128922}</t>
   </si>
   <si>
     <t>{144.0: 1.0}</t>
@@ -1708,13 +1708,13 @@
     <t>{152.0: 0.9990500316656111, 975.0: 0.0009499683343888536}</t>
   </si>
   <si>
-    <t>{185.0: 0.4093653665270528, 700.0: 0.568602215730542, 173.0: 0.021891522984659923, 404.0: 0.00014089475774519664}</t>
+    <t>{185.0: 0.4093653665270528, 700.0: 0.568602215730542, 173.0: 0.0218916729923871, 404.0: 0.00014074475001802581}</t>
   </si>
   <si>
     <t>{165.0: 0.9799457697103969, 914.0: 0.019393847876713152, 110.0: 0.0006603824128895607}</t>
   </si>
   <si>
-    <t>{166.0: 0.9992304732589454, 893.0: 0.0007695267410542517}</t>
+    <t>{166.0: 0.9992208804051423, 893.0: 0.0007791195948578107}</t>
   </si>
   <si>
     <t>{171.0: 1.0}</t>
@@ -1723,10 +1723,10 @@
     <t>{172.0: 0.9946275071633238, 81.0: 0.0053724928366762174}</t>
   </si>
   <si>
-    <t>{173.0: 0.9551925469933332, 404.0: 0.0061476591922338415, 185.0: 0.0377733773255125, 700.0: 0.0008864164889204882}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.9852869053457577, 502.0: 0.014713094654242276}</t>
+    <t>{173.0: 0.9551990922786058, 404.0: 0.006141113906961301, 185.0: 0.0377733773255125, 700.0: 0.0008864164889204882}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.9852869053457572, 502.0: 0.014713094654242276}</t>
   </si>
   <si>
     <t>{175.0: 0.9818551540747693, 399.0: 0.01814484592523072}</t>
@@ -1735,19 +1735,19 @@
     <t>{178.0: 0.9964536331396665, 681.0: 0.0035463668603335093}</t>
   </si>
   <si>
-    <t>{179.0: 0.5950678828464971, 180.0: 0.39450451402987413, 410.0: 0.010246425442575776, 850.0: 0.00016351345391478218, 277.0: 1.7664227138239243e-05}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.974248515536554, 410.0: 0.025304057170381308, 850.0: 0.00040380460573048857, 277.0: 4.3622687334388525e-05}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.9971909316050879, 277.0: 0.0020032995522036297, 282.0: 0.0008057688427085421}</t>
-  </si>
-  <si>
-    <t>{183.0: 0.9818648072763853, 182.0: 0.018135192723614493}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.9835310975016113, 171.0: 0.011387480521058113, 593.0: 0.0033967858587322266, 778.0: 0.001684636118598383}</t>
+    <t>{179.0: 0.5960977403468276, 180.0: 0.39350117688896274, 410.0: 0.010220365869510065, 850.0: 0.00016309759271290262, 277.0: 1.7619301986503348e-05}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.9742485155365538, 410.0: 0.025304057170381308, 850.0: 0.00040380460573048857, 277.0: 4.3622687334388525e-05}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.9971797831710923, 277.0: 0.0020111203123151546, 282.0: 0.000809096516592664}</t>
+  </si>
+  <si>
+    <t>{183.0: 0.9822861210442345, 182.0: 0.017713878955765972}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9834880171812896, 171.0: 0.011407602914240292, 593.0: 0.0034060103392520745, 778.0: 0.001698369565217391}</t>
   </si>
   <si>
     <t>{202.0: 0.8125259307831424, 307.0: 0.18747406921685753}</t>
@@ -1756,10 +1756,10 @@
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.9946148092744952, 857.0: 0.005385190725504863}</t>
-  </si>
-  <si>
-    <t>{207.0: 0.4623000761614623, 477.0: 0.5376999238385377}</t>
+    <t>{204.0: 0.9946682464454972, 857.0: 0.005331753554502373}</t>
+  </si>
+  <si>
+    <t>{207.0: 0.44800625488663026, 477.0: 0.5519937451133698}</t>
   </si>
   <si>
     <t>{208.0: 0.9980857016639668, 688.0: 0.0019142983360329847}</t>
@@ -1780,13 +1780,13 @@
     <t>{217.0: 1.0}</t>
   </si>
   <si>
-    <t>{218.0: 0.7815333823680913, 409.0: 0.2184666176319087}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.9001536098310291, 999.0: 0.09984639016897079}</t>
-  </si>
-  <si>
-    <t>{222.0: 0.8416485635345012, 490.0: 0.0027640346914105107, 503.0: 0.15558740177408845}</t>
+    <t>{218.0: 0.7813754377265826, 409.0: 0.2186245622734175}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.9001536098310294, 999.0: 0.09984639016897082}</t>
+  </si>
+  <si>
+    <t>{222.0: 0.8413236115648749, 490.0: 0.0027697896677032928, 503.0: 0.1559065987674213}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
@@ -1795,16 +1795,16 @@
     <t>{226.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 0.9996664752704241, 297.0: 0.00018045618356780216, 686.0: 0.00015306854600825932}</t>
-  </si>
-  <si>
-    <t>{228.0: 0.9923809523809521, 738.0: 0.007619047619047619}</t>
+    <t>{227.0: 0.9996683166600521, 297.0: 0.0001786147939395593, 686.0: 0.00015306854600825932}</t>
+  </si>
+  <si>
+    <t>{228.0: 0.9923809523809521, 738.0: 0.007619047619047623}</t>
   </si>
   <si>
     <t>{232.0: 0.9901095019427762, 145.0: 0.0010008242081714354, 301.0: 0.008889673849052161}</t>
   </si>
   <si>
-    <t>{240.0: 0.2375030654635066, 241.0: 0.7624969345364935}</t>
+    <t>{240.0: 0.2375030654635065, 241.0: 0.7624969345364935}</t>
   </si>
   <si>
     <t>{241.0: 1.0}</t>
@@ -1825,13 +1825,13 @@
     <t>{262.0: 1.0}</t>
   </si>
   <si>
-    <t>{263.0: 0.9986023245549507, 595.0: 0.0013976754450492864}</t>
+    <t>{263.0: 0.9986024273630011, 595.0: 0.0013975726369988967}</t>
   </si>
   <si>
     <t>{267.0: 1.0}</t>
   </si>
   <si>
-    <t>{270.0: 0.9873640905083751, 479.0: 0.012356147657862113, 942.0: 0.0002797618337629159}</t>
+    <t>{270.0: 0.9873640905083751, 479.0: 0.012350620848352221, 942.0: 0.0002852886432728136}</t>
   </si>
   <si>
     <t>{272.0: 0.8427700348432053, 203.0: 0.15722996515679444}</t>
@@ -1846,37 +1846,37 @@
     <t>{281.0: 0.9619157530294289, 599.0: 0.009040200038468936, 621.0: 0.029044046932102326}</t>
   </si>
   <si>
-    <t>{282.0: 0.9768220570320983, 182.0: 0.023177942967901703}</t>
+    <t>{282.0: 0.9770418363939698, 182.0: 0.022958163606029678}</t>
   </si>
   <si>
     <t>{285.0: 0.997181439569223, 311.0: 0.0028185604307769973}</t>
   </si>
   <si>
-    <t>{286.0: 0.9038647175249137, 909.0: 0.0961352824750859}</t>
+    <t>{286.0: 0.9042955098938933, 909.0: 0.09570449010610674}</t>
   </si>
   <si>
     <t>{288.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.960343291082585, 298.0: 0.0396567089174152}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.9860774179938826, 297.0: 0.013922582006117503}</t>
+    <t>{297.0: 0.9603432320318249, 298.0: 0.039656767968174994}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.986078886310905, 297.0: 0.013921113689095122}</t>
   </si>
   <si>
     <t>{301.0: 1.0}</t>
   </si>
   <si>
-    <t>{303.0: 0.9976967370441459, 144.0: 0.0023032629558541267}</t>
+    <t>{303.0: 0.997686969930609, 144.0: 0.002313030069390902}</t>
   </si>
   <si>
     <t>{305.0: 1.0}</t>
   </si>
   <si>
-    <t>{306.0: 0.9617261904761902, 142.0: 0.03827380952380952}</t>
-  </si>
-  <si>
-    <t>{309.0: 0.9257801422662858, 426.0: 0.0731432659158121, 204.0: 0.0010707941656292628, 857.0: 5.797652272921261e-06}</t>
+    <t>{306.0: 0.9617261904761907, 142.0: 0.03827380952380952}</t>
+  </si>
+  <si>
+    <t>{309.0: 0.928113721687963, 426.0: 0.07086273685860801, 204.0: 0.001018084182646364, 857.0: 5.457270782499869e-06}</t>
   </si>
   <si>
     <t>{311.0: 1.0}</t>
@@ -1885,10 +1885,10 @@
     <t>{226.0: 0.9416873449131513, 5.0: 0.05303970223325063, 759.0: 0.005272952853598015}</t>
   </si>
   <si>
-    <t>{315.0: 0.992684042066758, 217.0: 0.0073159579332418845}</t>
-  </si>
-  <si>
-    <t>{317.0: 0.9822371579452714, 71.0: 0.017762842054728757}</t>
+    <t>{315.0: 0.9926840420667584, 217.0: 0.0073159579332418845}</t>
+  </si>
+  <si>
+    <t>{317.0: 0.9820519039534321, 71.0: 0.017948096046568034}</t>
   </si>
   <si>
     <t>{398.0: 0.5643116392383036, 98.0: 0.4356883607616966}</t>
@@ -1912,10 +1912,10 @@
     <t>{404.0: 0.7774172615184942, 907.0: 0.22258273848150553}</t>
   </si>
   <si>
-    <t>{405.0: 0.3647447487468991, 404.0: 0.6352552512531009}</t>
-  </si>
-  <si>
-    <t>{408.0: 0.94304, 403.0: 0.05696}</t>
+    <t>{405.0: 0.3568051425820519, 404.0: 0.643194857417948}</t>
+  </si>
+  <si>
+    <t>{408.0: 0.9431382570917456, 403.0: 0.056861742908254534}</t>
   </si>
   <si>
     <t>{409.0: 1.0}</t>
@@ -1927,19 +1927,19 @@
     <t>{414.0: 0.9969001859888407, 759.0: 0.0030998140111593306}</t>
   </si>
   <si>
-    <t>{415.0: 0.8731132075471697, 277.0: 0.1268867924528302}</t>
+    <t>{415.0: 0.8729333963155409, 277.0: 0.12706660368445913}</t>
   </si>
   <si>
     <t>{418.0: 1.0}</t>
   </si>
   <si>
-    <t>{419.0: 0.9852104664391353, 17.0: 0.01478953356086462}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.9998354992597468, 212.0: 0.00016093754732365606, 681.0: 3.563192929675042e-06}</t>
-  </si>
-  <si>
-    <t>{424.0: 0.9520371325425477, 585.0: 0.0479628674574523}</t>
+    <t>{419.0: 0.9852607709750565, 17.0: 0.01473922902494331}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.9998354992597468, 212.0: 0.00016093754732365617, 681.0: 3.563192929675042e-06}</t>
+  </si>
+  <si>
+    <t>{424.0: 0.9521112255406797, 585.0: 0.04788877445932028}</t>
   </si>
   <si>
     <t>{426.0: 1.0}</t>
@@ -1948,7 +1948,7 @@
     <t>{428.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.9998116051243406, 783.0: 0.00018839487565938207}</t>
+    <t>{431.0: 0.9996376811594209, 783.0: 0.00036231884057971015}</t>
   </si>
   <si>
     <t>{431.0: 1.0}</t>
@@ -1972,22 +1972,22 @@
     <t>{477.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9778597785977857, 942.0: 0.02214022140221402}</t>
-  </si>
-  <si>
-    <t>{483.0: 0.9609996213555472, 563.0: 0.03900037864445286}</t>
-  </si>
-  <si>
-    <t>{489.0: 0.9916936790923823, 935.0: 0.008306320907617504}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9778869778869783, 503.0: 0.022113022113022112}</t>
+    <t>{479.0: 0.9774223894637818, 942.0: 0.022577610536218252}</t>
+  </si>
+  <si>
+    <t>{483.0: 0.9609996213555466, 563.0: 0.03900037864445286}</t>
+  </si>
+  <si>
+    <t>{489.0: 0.991730536506656, 935.0: 0.00826946349334409}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9779141104294478, 503.0: 0.022085889570552155}</t>
   </si>
   <si>
     <t>{491.0: 0.6155305025813929, 492.0: 0.384469497418607}</t>
   </si>
   <si>
-    <t>{492.0: 0.9814388529800157, 97.0: 0.002007871515969779, 696.0: 0.0004939796423712821, 85.0: 0.0005274745625237669, 178.0: 0.015531821299119224}</t>
+    <t>{492.0: 0.981438838880112, 97.0: 0.002007871515969779, 696.0: 0.0004939937422754595, 85.0: 0.0005274745625237669, 178.0: 0.015531821299119224}</t>
   </si>
   <si>
     <t>{499.0: 1.0}</t>
@@ -1996,7 +1996,7 @@
     <t>{500.0: 1.0}</t>
   </si>
   <si>
-    <t>{502.0: 0.9978808570755828, 534.0: 0.0009418412997409935, 695.0: 0.0010743766279124696, 857.0: 0.00010292499676377215}</t>
+    <t>{502.0: 0.9978808570755828, 534.0: 0.0009418412997409935, 695.0: 0.0010744956289403486, 857.0: 0.00010280599573589325}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
@@ -2035,16 +2035,16 @@
     <t>{565.0: 1.0}</t>
   </si>
   <si>
-    <t>{576.0: 0.9802847754654981, 401.0: 0.019715224534501644}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.9881828924643213, 752.0: 0.011817107535678575}</t>
+    <t>{576.0: 0.9802847754654983, 401.0: 0.019715224534501644}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.9884629037983671, 752.0: 0.011537096201632943}</t>
   </si>
   <si>
     <t>{581.0: 1.0}</t>
   </si>
   <si>
-    <t>{583.0: 0.6108457830393615, 742.0: 0.38534158079506087, 758.0: 0.003812636165577342}</t>
+    <t>{583.0: 0.6108457830393619, 742.0: 0.38534158079506087, 758.0: 0.003812636165577342}</t>
   </si>
   <si>
     <t>{585.0: 1.0}</t>
@@ -2053,10 +2053,10 @@
     <t>{81.0: 0.3681337174635443, 172.0: 0.07345738928110976, 507.0: 0.5584088932553459}</t>
   </si>
   <si>
-    <t>{593.0: 0.991207567281932, 686.0: 0.005427172557571231, 171.0: 0.003365260160497023}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9991012043861226, 402.0: 0.0008894395353984783, 476.0: 9.356078478926186e-06}</t>
+    <t>{593.0: 0.9912172314130088, 686.0: 0.005417508426494019, 171.0: 0.003365260160497023}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9991012043861226, 402.0: 0.0008894395353984776, 476.0: 9.356078478926186e-06}</t>
   </si>
   <si>
     <t>{597.0: 1.0}</t>
@@ -2068,7 +2068,7 @@
     <t>{599.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.9960505529225909, 852.0: 0.001172884671243, 922.0: 0.002776562406166162}</t>
+    <t>{604.0: 0.9960505529225909, 852.0: 0.0011727912431587178, 922.0: 0.002776655834250445}</t>
   </si>
   <si>
     <t>{605.0: 0.974858757062147, 475.0: 0.025141242937853105}</t>
@@ -2089,7 +2089,7 @@
     <t>{613.0: 1.0}</t>
   </si>
   <si>
-    <t>{305.0: 0.8292882465230431, 615.0: 0.019634578674665937, 698.0: 0.0109080992637033, 832.0: 0.14016907553858743}</t>
+    <t>{305.0: 0.8292882465230431, 615.0: 0.01963457867466594, 698.0: 0.0109080992637033, 832.0: 0.1401690755385874}</t>
   </si>
   <si>
     <t>{615.0: 1.0}</t>
@@ -2098,7 +2098,7 @@
     <t>{618.0: 0.9843454790823211, 246.0: 0.0019026021155964614, 789.0: 0.01375191880208235}</t>
   </si>
   <si>
-    <t>{619.0: 0.965509644191444, 887.0: 0.013007925875422115, 861.0: 0.021466746056462076, 253.0: 1.5683876672083762e-05}</t>
+    <t>{619.0: 0.9654101869025536, 887.0: 0.013046083606791267, 861.0: 0.021528000860446848, 253.0: 1.5728630208029214e-05}</t>
   </si>
   <si>
     <t>{621.0: 1.0}</t>
@@ -2125,7 +2125,7 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 0.997153492445807, 174.0: 0.0028046266191142652, 502.0: 4.188093507885912e-05}</t>
+    <t>{687.0: 0.9971296091852504, 174.0: 0.0028281584829973174, 502.0: 4.223233175207543e-05}</t>
   </si>
   <si>
     <t>{688.0: 0.9574829931972787, 208.0: 0.042517006802721094}</t>
@@ -2140,10 +2140,10 @@
     <t>{694.0: 0.9398443029016278, 86.0: 0.06015569709837227}</t>
   </si>
   <si>
-    <t>{695.0: 0.9125755077488517, 857.0: 0.08742449225114807}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9816108316661319, 492.0: 0.017884122003138155, 14.0: 0.0004997942885116642, 178.0: 3.254928612905662e-07, 623.0: 8.137321532264154e-07, 97.0: 4.11281720352593e-06}</t>
+    <t>{695.0: 0.9126765872219321, 857.0: 0.08732341277806772}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9816388484063283, 492.0: 0.01785610337176307, 14.0: 0.0004997969151486987, 178.0: 3.252827303278221e-07, 623.0: 8.132068258195552e-07, 97.0: 4.11281720352593e-06}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -2158,25 +2158,25 @@
     <t>{580.0: 1.0}</t>
   </si>
   <si>
-    <t>{734.0: 0.26422101444321144, 73.0: 0.13523849320665327, 888.0: 0.6005404923501354}</t>
-  </si>
-  <si>
-    <t>{737.0: 0.9266375545851534, 223.0: 0.03580786026200873, 428.0: 0.03755458515283843}</t>
+    <t>{734.0: 0.2644190502430502, 73.0: 0.13520755011292845, 888.0: 0.6003733996440214}</t>
+  </si>
+  <si>
+    <t>{737.0: 0.9279588336192106, 223.0: 0.03516295025728988, 428.0: 0.03687821612349914}</t>
   </si>
   <si>
     <t>{738.0: 1.0}</t>
   </si>
   <si>
-    <t>{740.0: 0.701123595505618, 789.0: 0.2985884233755502, 246.0: 0.00028798111883190805}</t>
+    <t>{740.0: 0.7011235955056179, 789.0: 0.2985884233755502, 246.0: 0.0002879811188319081}</t>
   </si>
   <si>
     <t>{741.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.806692854513823, 580.0: 0.1933071454861769}</t>
-  </si>
-  <si>
-    <t>{758.0: 0.9991689750692521, 583.0: 0.0005095708829251114, 742.0: 0.0003214540478228109}</t>
+    <t>{752.0: 0.8066160041894901, 580.0: 0.19338399581050952}</t>
+  </si>
+  <si>
+    <t>{758.0: 0.9991689750692521, 583.0: 0.0005095708829251116, 742.0: 0.0003214540478228109}</t>
   </si>
   <si>
     <t>{759.0: 1.0}</t>
@@ -2191,16 +2191,16 @@
     <t>{762.0: 0.9509029955661302, 141.0: 0.049097004433870446}</t>
   </si>
   <si>
-    <t>{770.0: 0.9803571428571429, 992.0: 0.019642857142857142}</t>
+    <t>{770.0: 0.9801712483100495, 992.0: 0.01982875168995043}</t>
   </si>
   <si>
     <t>{992.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9765625833933936, 171.0: 0.019252318449638824, 184.0: 0.0006894306403484068, 593.0: 0.001518601482613329, 420.0: 0.001976740805179412, 212.0: 3.1818415840975897e-07, 681.0: 7.044667713869202e-09}</t>
-  </si>
-  <si>
-    <t>{781.0: 0.9996501457725946, 81.0: 0.00034934283424021336, 172.0: 5.113931650345672e-07}</t>
+    <t>{778.0: 0.9771147909795727, 171.0: 0.01875694075075375, 184.0: 0.0006716703560773242, 593.0: 0.0014795318795907623, 420.0: 0.001976740805179412, 212.0: 3.181841584097591e-07, 681.0: 7.044667713869202e-09}</t>
+  </si>
+  <si>
+    <t>{781.0: 0.9996501457725946, 81.0: 0.00034934241636705996, 172.0: 5.118110381878884e-07}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
@@ -2209,13 +2209,13 @@
     <t>{785.0: 1.0}</t>
   </si>
   <si>
-    <t>{787.0: 0.8357348703170027, 500.0: 0.16426512968299709}</t>
+    <t>{787.0: 0.8360891445003592, 500.0: 0.16391085549964055}</t>
   </si>
   <si>
     <t>{788.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 0.999036454151277, 246.0: 0.0009635458487233017}</t>
+    <t>{789.0: 0.9990364541512764, 246.0: 0.0009635458487233017}</t>
   </si>
   <si>
     <t>{832.0: 1.0}</t>
@@ -2224,40 +2224,40 @@
     <t>{833.0: 0.9940704167244313, 17.0: 0.004682700482551158, 918.0: 0.0012468827930174563}</t>
   </si>
   <si>
-    <t>{835.0: 0.9904058244467709, 836.0: 0.009594175553229308}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9918426103646832, 835.0: 0.008157389635316698}</t>
+    <t>{835.0: 0.9900669157761304, 836.0: 0.009933084223869343}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9922515952597997, 835.0: 0.007748404740200544}</t>
   </si>
   <si>
     <t>{837.0: 0.7910588189347847, 536.0: 0.11520779038336175, 486.0: 0.07468196059767147, 980.0: 0.019051430084181874}</t>
   </si>
   <si>
-    <t>{227.0: 0.9322033898305083, 686.0: 0.06779661016949153}</t>
-  </si>
-  <si>
-    <t>{848.0: 0.8022190532860046, 707.0: 0.004568879278325606, 634.0: 0.19321206743566993}</t>
-  </si>
-  <si>
-    <t>{850.0: 0.9025032938076415, 277.0: 0.09749670619235835}</t>
-  </si>
-  <si>
-    <t>{852.0: 0.9899146625290919, 922.0: 0.01008533747090768}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.8487926071796247, 91.0: 0.0010065767865829517, 202.0: 0.06321913531305247, 680.0: 0.00018165110585939895, 477.0: 0.08456065457257103, 307.0: 8.839720974269259e-05, 207.0: 0.002150977832567094}</t>
-  </si>
-  <si>
-    <t>{854.0: 0.9973455598455601, 976.0: 0.0026544401544401543}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.9933988485562898, 695.0: 0.006601151443710326}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.9872985781990522, 543.0: 0.012701421800947866}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.9908212213410216, 253.0: 0.0007239065389194395, 490.0: 0.008454872120059184}</t>
+    <t>{227.0: 0.9322033898305087, 686.0: 0.06779661016949153}</t>
+  </si>
+  <si>
+    <t>{848.0: 0.8022190532860042, 707.0: 0.004568879278325609, 634.0: 0.19321206743566993}</t>
+  </si>
+  <si>
+    <t>{850.0: 0.9025032938076418, 277.0: 0.09749670619235835}</t>
+  </si>
+  <si>
+    <t>{852.0: 0.9898358092259579, 922.0: 0.010164190774042221}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.8487926071796243, 91.0: 0.0010065767865829517, 202.0: 0.06321913531305247, 680.0: 0.00018165110585939895, 477.0: 0.08462716049435266, 307.0: 8.839720974269259e-05, 207.0: 0.002084471910785455}</t>
+  </si>
+  <si>
+    <t>{854.0: 0.9973352713178296, 976.0: 0.0026647286821705426}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.9933341551984092, 695.0: 0.006665844801591098}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.9872985781990522, 543.0: 0.012701421800947868}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.9908122828101357, 253.0: 0.0007239000083155151, 490.0: 0.008463817181548879}</t>
   </si>
   <si>
     <t>{863.0: 0.9722739981360669, 10.0: 0.027726001863932894}</t>
@@ -2269,7 +2269,7 @@
     <t>{886.0: 1.0}</t>
   </si>
   <si>
-    <t>{887.0: 0.9969504757257864, 267.0: 0.003049524274213223}</t>
+    <t>{887.0: 0.9969948311095083, 267.0: 0.0030051688904916456}</t>
   </si>
   <si>
     <t>{888.0: 1.0}</t>
@@ -2293,7 +2293,7 @@
     <t>{914.0: 0.9042779872152106, 110.0: 0.09572201278478937}</t>
   </si>
   <si>
-    <t>{915.0: 0.5124185505583967, 171.0: 0.26032762398046216, 420.0: 0.22725382546114128}</t>
+    <t>{915.0: 0.5204580106136844, 171.0: 0.2557483187470411, 420.0: 0.22379367063927463}</t>
   </si>
   <si>
     <t>{917.0: 1.0}</t>
@@ -2302,7 +2302,7 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{919.0: 0.9939789262418464, 297.0: 0.006021073758153537}</t>
+    <t>{919.0: 0.9941104294478532, 297.0: 0.00588957055214724}</t>
   </si>
   <si>
     <t>{921.0: 0.8348146542380231, 686.0: 0.16518534576197702}</t>
@@ -2311,13 +2311,13 @@
     <t>{922.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.6037465689154068, 418.0: 0.22706767089552468, 922.0: 0.16918576018906858}</t>
+    <t>{3.0: 0.6037733799331189, 418.0: 0.22706009789142137, 922.0: 0.1691665221754596}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
   </si>
   <si>
-    <t>{933.0: 0.8733408699141655, 702.0: 0.00550829940027856, 249.0: 0.12115083068555586}</t>
+    <t>{933.0: 0.8738662178227143, 702.0: 0.005485663639816162, 249.0: 0.12064811853746932}</t>
   </si>
   <si>
     <t>{934.0: 0.9748517200474489, 5.0: 0.025148279952550416}</t>
@@ -2326,7 +2326,7 @@
     <t>{935.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 0.9879985585965653, 171.0: 0.003293328528655217, 593.0: 0.0036190543506065143, 85.0: 0.005089058524173028}</t>
+    <t>{937.0: 0.9880009426222852, 171.0: 0.003293336475407618, 593.0: 0.0036166623781342037, 85.0: 0.005089058524173028}</t>
   </si>
   <si>
     <t>{940.0: 0.9931610942249239, 785.0: 0.006838905775075988}</t>
@@ -2335,13 +2335,13 @@
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.8262012427198325, 634.0: 0.09698213317988755, 848.0: 0.07638160782411046, 707.0: 0.00043501627616958957}</t>
-  </si>
-  <si>
-    <t>{971.0: 0.9930875576036869, 975.0: 0.005883289646722212, 152.0: 0.0010291527495911526}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.954137587238285, 615.0: 0.04586241276171485}</t>
+    <t>{943.0: 0.8278214380171536, 634.0: 0.09536193788256651, 848.0: 0.07638160782411042, 707.0: 0.00043501627616958984}</t>
+  </si>
+  <si>
+    <t>{971.0: 0.9930875576036869, 975.0: 0.005883289646722212, 152.0: 0.0010291527495911524}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.9537688442211055, 615.0: 0.04623115577889449}</t>
   </si>
   <si>
     <t>{975.0: 1.0}</t>
@@ -2350,7 +2350,7 @@
     <t>{976.0: 1.0}</t>
   </si>
   <si>
-    <t>{978.0: 0.9504155918601318, 489.0: 0.04917254413384412, 935.0: 0.00041186400602402645}</t>
+    <t>{978.0: 0.9504155918601318, 489.0: 0.04917437168691644, 935.0: 0.00041003645295171326}</t>
   </si>
   <si>
     <t>{979.0: 0.9865097588978187, 561.0: 0.0134902411021814}</t>
@@ -4273,7 +4273,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B142" t="s">
         <v>143</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B143" t="s">
         <v>144</v>
@@ -4295,29 +4295,29 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B144" t="s">
         <v>145</v>
       </c>
       <c r="C144" t="s">
-        <v>598</v>
+        <v>145</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B145" t="s">
         <v>146</v>
       </c>
       <c r="C145" t="s">
-        <v>146</v>
+        <v>598</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B146" t="s">
         <v>147</v>
@@ -4328,40 +4328,40 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B147" t="s">
         <v>148</v>
       </c>
       <c r="C147" t="s">
-        <v>599</v>
+        <v>148</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B148" t="s">
         <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B149" t="s">
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>150</v>
+        <v>600</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -4372,29 +4372,29 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>601</v>
+        <v>152</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>153</v>
+        <v>601</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
@@ -4405,7 +4405,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -4416,7 +4416,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4427,7 +4427,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -4449,7 +4449,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -4460,95 +4460,95 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>602</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>586</v>
+        <v>603</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>165</v>
+        <v>605</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>606</v>
+        <v>166</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>167</v>
+        <v>606</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4559,51 +4559,51 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>607</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>170</v>
+        <v>607</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>608</v>
+        <v>171</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>172</v>
+        <v>608</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4614,40 +4614,40 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>609</v>
+        <v>174</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>176</v>
+        <v>610</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4658,62 +4658,62 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>611</v>
+        <v>178</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>180</v>
+        <v>612</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>613</v>
+        <v>181</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>182</v>
+        <v>613</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4724,7 +4724,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4757,7 +4757,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4768,40 +4768,40 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>614</v>
+        <v>188</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>190</v>
+        <v>615</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4812,161 +4812,161 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>616</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>194</v>
+        <v>617</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>618</v>
+        <v>195</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>197</v>
+        <v>619</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>620</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>199</v>
+        <v>620</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>621</v>
+        <v>200</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>203</v>
+        <v>623</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>624</v>
+        <v>204</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>205</v>
+        <v>624</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4977,7 +4977,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
